--- a/数据整理/stocks/A股/科创板/688133-泰坦科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688133-泰坦科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.09</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.49</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8564</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,25 +596,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004774</t>
+          <t>003378</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富添福吉祥混合</t>
+          <t>泰康策略优选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.71</t>
+          <t>26.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8582</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -594,25 +634,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003378</t>
+          <t>004774</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康策略优选灵活配置混合</t>
+          <t>汇添富添福吉祥混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.43</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688133-泰坦科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688133-泰坦科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4656</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688133-泰坦科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688133-泰坦科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4752</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1826</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688133-泰坦科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688133-泰坦科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1505,4 +1506,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688133-泰坦科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688133-泰坦科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5305</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.12</v>
       </c>
     </row>
     <row r="3">
@@ -1561,14 +1604,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.2</v>
       </c>
     </row>
     <row r="4">
@@ -1577,14 +1642,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.86</v>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1593,13 +1680,493 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688133-泰坦科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688133-泰坦科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2065,7 +2066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,17 +2077,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2096,14 +2117,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.91</v>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2112,14 +2155,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.12</v>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2128,14 +2193,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>2.2</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="5">
@@ -2144,14 +2315,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.86</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="6">
@@ -2160,13 +2331,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688133-泰坦科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688133-泰坦科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2236,7 +2237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,17 +2248,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2267,14 +2288,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4292</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2283,14 +2326,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.91</v>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2299,14 +2364,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.12</v>
       </c>
     </row>
     <row r="5">
@@ -2315,14 +2402,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.2</v>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2331,14 +2440,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.86</v>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2347,13 +2478,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688133-泰坦科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688133-泰坦科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.91</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>1.12</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>2.2</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.86</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.86</v>
       </c>
     </row>
@@ -600,6 +617,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2140</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013293</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城健康消费混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015562</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -883,7 +1450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1053,7 +1620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1603,7 +2170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2001,7 +2568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2437,7 +3004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2569,7 +3136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688133-泰坦科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688133-泰坦科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.91</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>1.12</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>2.2</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>0.86</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.86</v>
       </c>
     </row>
@@ -616,7 +633,423 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8564</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银兴利稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012705</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银兴利稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519222</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>31.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519221</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1166,7 +1599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1450,7 +1883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1620,7 +2053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2170,7 +2603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2568,7 +3001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3004,7 +3437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3134,98 +3567,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003378</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰康策略优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>24.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8564</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>